--- a/data/prs_list.xlsx
+++ b/data/prs_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="behavior" sheetId="1" r:id="rId1"/>
     <sheet name="lifestyle" sheetId="2" r:id="rId2"/>
     <sheet name="health" sheetId="3" r:id="rId3"/>
-    <sheet name="congenital" sheetId="4" r:id="rId4"/>
+    <sheet name="misc_long_term" sheetId="4" r:id="rId4"/>
     <sheet name="mental" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5932,7 +5932,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6060,80 +6060,80 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GCST009722</t>
+          <t>GCST004901</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glaucoma (multi-trait analysis)</t>
+          <t>Amyotrophic lateral sclerosis (sporadic)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GCST008373</t>
+          <t>GCST007320</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glaucoma</t>
+          <t>Alzheimer's disease or family history of Alzheimer's disease</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GCST004901</t>
+          <t>GA3647</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amyotrophic lateral sclerosis (sporadic)</t>
+          <t>Family (maternal) history of Severe depression</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GCST007320</t>
+          <t>GCST010012</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alzheimer's disease or family history of Alzheimer's disease</t>
+          <t>Help-seeking from a psychiatrist</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GA3647</t>
+          <t>GCST005902</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Family (maternal) history of Severe depression</t>
+          <t>Depression (broad)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6145,12 +6145,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GCST010012</t>
+          <t>GCST010015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Help-seeking from a psychiatrist</t>
+          <t>Depression or depression symptoms</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6162,12 +6162,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCST005902</t>
+          <t>GCST005903</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Depression (broad)</t>
+          <t>Major depressive disorder (ICD-10 coded)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6179,12 +6179,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCST010015</t>
+          <t>GCST005904</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Depression or depression symptoms</t>
+          <t>Major depressive disorder (probable)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6196,12 +6196,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCST005903</t>
+          <t>GA3997</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Major depressive disorder (ICD-10 coded)</t>
+          <t>Worrier / anxious feelings (worry)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6213,12 +6213,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCST005904</t>
+          <t>GCST006948</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Major depressive disorder (probable)</t>
+          <t>Feeling nervous</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6230,12 +6230,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GA3997</t>
+          <t>GCST006952</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Worrier / anxious feelings (worry)</t>
+          <t>Feeling tense</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6247,12 +6247,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GCST006948</t>
+          <t>GCST006941</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Feeling nervous</t>
+          <t>Irritable mood</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6264,12 +6264,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GCST006952</t>
+          <t>GCST006924</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Feeling tense</t>
+          <t>Loneliness (MTAG)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6281,12 +6281,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GCST006941</t>
+          <t>GA3737</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Irritable mood</t>
+          <t>Ever had prolonged loss of interest in normal activities</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6298,80 +6298,80 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GCST006924</t>
+          <t>GCST001837</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Loneliness (MTAG)</t>
+          <t>Intelligence (childhood)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GA3737</t>
+          <t>GA4276</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ever had prolonged loss of interest in normal activities</t>
+          <t>Carpal tunnel syndrome (v1)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GCST009520</t>
+          <t>GA3761</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Refractive error (age-at-onset of spectacle wearing-inferred)</t>
+          <t>Recent trouble concentrating on things</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GCST009521</t>
+          <t>GCST007340</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Refractive error (autorefraction measured)</t>
+          <t>Depressive symptoms (Baselmans 2019)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GCST001837</t>
+          <t>GA3405</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Intelligence (childhood)</t>
+          <t>Fluid intelligence test - FI7 : synonym</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6383,148 +6383,148 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GA4276</t>
+          <t>GA56</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carpal tunnel syndrome (v1)</t>
+          <t>Depressive symptoms (Okbay 2016)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GA3761</t>
+          <t>GA53</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Recent trouble concentrating on things</t>
+          <t>Educational attainment (Okbay 2016)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Education</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GCST007340</t>
+          <t>GA4159</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Depressive symptoms (Baselmans 2019)</t>
+          <t>Epilepsy (childhood absence epilepsy)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GA3405</t>
+          <t>GA4161</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fluid intelligence test - FI7 : synonym</t>
+          <t>Epilepsy (focal epilepsy, lesion negative)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GA56</t>
+          <t>GA4165</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Depressive symptoms (Okbay 2016)</t>
+          <t>Epilepsy (myoclonic epilepsy)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GA53</t>
+          <t>GA3298</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Educational attainment (Okbay 2016)</t>
+          <t>Frequency of unenthusiasm / disinterest in last 2 weeks</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GA4159</t>
+          <t>GA3300</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Epilepsy (childhood absence epilepsy)</t>
+          <t>Frequency of tiredness / lethargy in last 2 weeks</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GA4161</t>
+          <t>GA3771</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Epilepsy (focal epilepsy, lesion negative)</t>
+          <t>Recent changes in speed/amount of moving or speaking</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GA4165</t>
+          <t>GA3374</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Epilepsy (myoclonic epilepsy)</t>
+          <t>Headaches for 3+ months</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6536,46 +6536,46 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GA3298</t>
+          <t>GA3381</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Frequency of unenthusiasm / disinterest in last 2 weeks</t>
+          <t>Prospective memory test - Time to answer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GA3300</t>
+          <t>GA3383</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Frequency of tiredness / lethargy in last 2 weeks</t>
+          <t>Prospective memory test - Number of attempts</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GA3771</t>
+          <t>GA3391</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Recent changes in speed/amount of moving or speaking</t>
+          <t>Ever depressed for a whole week</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6587,97 +6587,97 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GA3374</t>
+          <t>GA3772</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Headaches for 3+ months</t>
+          <t>Recent feelings of tiredness or low enery</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GA3381</t>
+          <t>GA3394</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Prospective memory test - Time to answer</t>
+          <t>Ever unenthusiastic/disinterested for a whole week</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GA3383</t>
+          <t>GA4002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Prospective memory test - Number of attempts</t>
+          <t>Guilty feelings (Nagel 2018)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GA3391</t>
+          <t>GA3427</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ever depressed for a whole week</t>
+          <t>Fluid intelligence test - FI4 : positional arithmetic</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GA3772</t>
+          <t>GA3415</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Recent feelings of tiredness or low enery</t>
+          <t>Reaction time</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GA3394</t>
+          <t>GA3767</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ever unenthusiastic/disinterested for a whole week</t>
+          <t>Recent lack of interenst of pleasure in doing things</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6689,29 +6689,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GA4002</t>
+          <t>GA3420</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Guilty feelings (Nagel 2018)</t>
+          <t>Pairs matching test - Number of incorrect matches in round</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GA3427</t>
+          <t>GA3421</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fluid intelligence test - FI4 : positional arithmetic</t>
+          <t>Pairs matching test - Time to complete round</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6723,12 +6723,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GA3415</t>
+          <t>GA3422</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reaction time</t>
+          <t>Trail making test - Duration to complete numeric path (trail #1)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6740,29 +6740,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GA3767</t>
+          <t>GA3423</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Recent lack of interenst of pleasure in doing things</t>
+          <t>Trail making test - Duration to complete alphanumeric path (trail #2)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GA3420</t>
+          <t>GA3432</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pairs matching test - Number of incorrect matches in round</t>
+          <t>Symbol digit substitution test - Number of symbol digit matches attempted</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6774,12 +6774,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GA3421</t>
+          <t>GA3433</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pairs matching test - Time to complete round</t>
+          <t>Symbol digit substitution test - Duration to entering value</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6791,267 +6791,267 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GA3422</t>
+          <t>phen70</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Trail making test - Duration to complete numeric path (trail #1)</t>
+          <t>Headache</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GA3423</t>
+          <t>GA3727</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Trail making test - Duration to complete alphanumeric path (trail #2)</t>
+          <t>Ever felt worried, tense, or anxious for most of a month or longer</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GA3432</t>
+          <t>GA3636</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Symbol digit substitution test - Number of symbol digit matches attempted</t>
+          <t>Family (paternal) history of Severe depression</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GA3433</t>
+          <t>GA3532</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Symbol digit substitution test - Duration to entering value</t>
+          <t>Mental health: Serious illness, injury or assault to yourself</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>phen70</t>
+          <t>GA3533</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Mental health: Serious illness, injury or assault of a close relative</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Trauma</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GA3727</t>
+          <t>GA3203</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ever felt worried, tense, or anxious for most of a month or longer</t>
+          <t>Age completed full time education</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Education</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GA3636</t>
+          <t>GA3603</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Family (paternal) history of Severe depression</t>
+          <t>Migraine</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GA3532</t>
+          <t>GA209</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mental health: Serious illness, injury or assault to yourself</t>
+          <t>Intelligence (Sniekers 2017)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Psychiatry</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GA3533</t>
+          <t>GCST005920</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mental health: Serious illness, injury or assault of a close relative</t>
+          <t>Paternal history of Alzheimer's disease</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trauma</t>
+          <t>Neurologic</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GA3543</t>
+          <t>GCST006250</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cataract</t>
+          <t>Intelligence (Savage 2018)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Cognition</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GA3203</t>
+          <t>GA3760</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Age completed full time education</t>
+          <t>Recent feelings of inadequacy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GA3603</t>
+          <t>GA3991</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Migraine</t>
+          <t>Mood swings (Nagel 2018)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GA209</t>
+          <t>GA3769</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Intelligence (Sniekers 2017)</t>
+          <t>Recent restlessness</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GCST005920</t>
+          <t>GA3768</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Paternal history of Alzheimer's disease</t>
+          <t>Recent trouble relaxing</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Neurologic</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GCST006250</t>
+          <t>GCST010013</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Intelligence (Savage 2018)</t>
+          <t>Major depressive disorder symptoms (low mood or anhedonia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cognition</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GA3760</t>
+          <t>GA3736</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Recent feelings of inadequacy</t>
+          <t>Impact of normal roles during worst period of depression</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7063,29 +7063,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GA3667</t>
+          <t>GA3734</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Other cataract</t>
+          <t>Duration of worst depression</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ocular</t>
+          <t>Psychiatry</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GA3991</t>
+          <t>GA3735</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mood swings (Nagel 2018)</t>
+          <t>Frequency of depressed days during worst episode of depression</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7097,12 +7097,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GA3769</t>
+          <t>GA3733</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Recent restlessness</t>
+          <t>Thoughts of death during worst depression</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7114,12 +7114,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GA3768</t>
+          <t>GA3732</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Recent trouble relaxing</t>
+          <t>Fraction of day affected during worst episode of depression</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7131,12 +7131,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GCST010013</t>
+          <t>GCST010009</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Major depressive disorder symptoms (low mood or anhedonia)</t>
+          <t>Major depressive disorder (lifetime)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7148,12 +7148,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GA3736</t>
+          <t>GA3743</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Impact of normal roles during worst period of depression</t>
+          <t>Feelings of worthlessness during worst period of depression</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7165,12 +7165,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GA3734</t>
+          <t>GA3729</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Duration of worst depression</t>
+          <t>Age at first episode of depression</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7182,12 +7182,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GA3735</t>
+          <t>GA3755</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Frequency of depressed days during worst episode of depression</t>
+          <t>Ever sought or received professional help for mental distress</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7199,12 +7199,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GA3733</t>
+          <t>GA3756</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Thoughts of death during worst depression</t>
+          <t>Ever suffered mental distress preventing usual activities</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7216,12 +7216,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GA3732</t>
+          <t>GA3395</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fraction of day affected during worst episode of depression</t>
+          <t>Ever highly irritable/argumentative for 2 days</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7233,12 +7233,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GCST010009</t>
+          <t>GA3759</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Major depressive disorder (lifetime)</t>
+          <t>Recent feelings or nervousness or anxiety</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7250,12 +7250,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GA3743</t>
+          <t>GA3742</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Feelings of worthlessness during worst period of depression</t>
+          <t>Feelings of tiredness during worst episode of depression</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7267,12 +7267,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GA3729</t>
+          <t>GA3730</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Age at first episode of depression</t>
+          <t>Age at last episode of depression</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7284,12 +7284,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GA3755</t>
+          <t>GCST007708</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ever sought or received professional help for mental distress</t>
+          <t>Worry/vulnerability (special factor of neuroticism)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7301,12 +7301,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GA3756</t>
+          <t>GA3731</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ever suffered mental distress preventing usual activities</t>
+          <t>Difficulty concentrating during worst depression</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GA3395</t>
+          <t>GA3770</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ever highly irritable/argumentative for 2 days</t>
+          <t>Trouble falling or staying asleep. or sleeping too much</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7335,12 +7335,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GA3759</t>
+          <t>GA3758</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Recent feelings or nervousness or anxiety</t>
+          <t>Recent easy annoyance or irritability</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -7352,12 +7352,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GA3742</t>
+          <t>GCST010014</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Feelings of tiredness during worst episode of depression</t>
+          <t>Help-seeking from a GP (without major depressive disorder symptoms)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -7369,12 +7369,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GA3730</t>
+          <t>GA3765</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Age at last episode of depression</t>
+          <t>Recent feelings of foreboding</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7386,12 +7386,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GCST007708</t>
+          <t>GCST009981</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Worry/vulnerability (special factor of neuroticism)</t>
+          <t>Major depressive disorder in trauma-unexposed individuals</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7403,12 +7403,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GA3731</t>
+          <t>GA3728</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Difficulty concentrating during worst depression</t>
+          <t>Ever worried more than most people would in similar situation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -7420,12 +7420,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GA3770</t>
+          <t>GA3740</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trouble falling or staying asleep. or sleeping too much</t>
+          <t>Depression possibly related to stressful or traumatic event</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -7437,12 +7437,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GA3758</t>
+          <t>GA3752</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Recent easy annoyance or irritability</t>
+          <t>Felt distant from other people in past month</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -7454,12 +7454,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GCST010014</t>
+          <t>GA3757</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Help-seeking from a GP (without major depressive disorder symptoms)</t>
+          <t>Ever had period extreme irritability</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -7471,12 +7471,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GA3765</t>
+          <t>GCST009980</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Recent feelings of foreboding</t>
+          <t>Major depressive disorder in trauma exposed individuals</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -7488,12 +7488,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GCST009981</t>
+          <t>GCST009983</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Major depressive disorder in trauma-unexposed individuals</t>
+          <t>Trauma exposure in major depressive disorder</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7505,12 +7505,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GA3728</t>
+          <t>phen30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ever worried more than most people would in similar situation</t>
+          <t>Neuroticism</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7522,12 +7522,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GA3740</t>
+          <t>GA3750</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Depression possibly related to stressful or traumatic event</t>
+          <t>Felt irritable or had angry outbursts in past month</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7539,12 +7539,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GA3752</t>
+          <t>GA3999</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Felt distant from other people in past month</t>
+          <t>Worry too long after embarrassment</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -7556,12 +7556,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GA3757</t>
+          <t>GA3994</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ever had period extreme irritability</t>
+          <t>Sensitivity (Nagel 2018)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -7573,117 +7573,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GCST009980</t>
+          <t>GA3293</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Major depressive disorder in trauma exposed individuals</t>
+          <t>Suffer from nerves (Watanabe 2019)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>GCST009983</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Trauma exposure in major depressive disorder</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>phen30</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Neuroticism</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>GA3750</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Felt irritable or had angry outbursts in past month</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>GA3999</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Worry too long after embarrassment</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>GA3994</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Sensitivity (Nagel 2018)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Psychiatry</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>GA3293</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Suffer from nerves (Watanabe 2019)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>Psychiatry</t>
         </is>
